--- a/AAII_Financials/Quarterly/XFCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XFCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>XFCI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,76 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -741,8 +744,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,13 +918,16 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
@@ -913,23 +935,26 @@
       <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20600</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,11 +1057,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1038,26 +1071,29 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1067,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1081,52 +1120,58 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,11 +1441,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1386,37 +1455,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1618,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1551,19 +1637,22 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1608,8 +1700,8 @@
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -1620,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1744,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1666,20 +1764,23 @@
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1698,17 +1799,20 @@
       <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1840,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1756,8 +1863,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -1765,37 +1872,43 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E49" s="3">
         <v>11400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21600</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1983,7 +2113,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -1994,57 +2124,63 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -2052,37 +2188,43 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E76" s="3">
         <v>9900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21200</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +2831,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -2649,11 +2847,11 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>-600</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
@@ -2663,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,13 +3021,16 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2823,22 +3039,25 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2864,11 +3084,11 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2952,22 +3181,25 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,13 +3337,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3110,22 +3355,25 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,13 +3401,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3168,18 +3419,21 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XFCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XFCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>XFCI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,104 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,13 +923,19 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -921,40 +961,52 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+      <c r="H15" s="3">
+        <v>300</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20600</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-20600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,13 +1108,15 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1060,54 +1128,66 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1123,55 +1203,67 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-20600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,13 +1560,19 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1444,54 +1584,66 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,13 +1791,15 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1640,19 +1814,25 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,8 +1863,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1703,11 +1889,11 @@
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
@@ -1715,8 +1901,14 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1939,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1767,20 +1965,26 @@
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1802,17 +2006,23 @@
       <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
+      <c r="J46" s="3">
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,8 +2053,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1866,49 +2082,61 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F49" s="3">
         <v>10400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>21400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2003,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F54" s="3">
         <v>10400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21600</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,8 +2355,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2116,10 +2378,10 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2127,8 +2389,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2136,31 +2404,37 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2168,31 +2442,37 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2200,31 +2480,37 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,8 +2541,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2579,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,8 +2693,14 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2392,31 +2708,37 @@
         <v>1300</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-37700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-36100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-35200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F76" s="3">
         <v>9200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>21200</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>-600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3087,14 +3529,14 @@
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -3102,8 +3544,14 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3184,22 +3644,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XFCI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XFCI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>XFCI</t>
   </si>
@@ -3517,23 +3517,23 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
